--- a/Days/Day3 exercises/5.7.+Test+for+the+mean.+Dependent+samples_exercise.xlsx
+++ b/Days/Day3 exercises/5.7.+Test+for+the+mean.+Dependent+samples_exercise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B3E7CA-1896-4833-93A9-B061F535F51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BCA72E-4F28-4076-8921-D8EC07688D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,12 +97,6 @@
     <t>Alternative hypothesis</t>
   </si>
   <si>
-    <t>The weight has changed, &gt;0</t>
-  </si>
-  <si>
-    <t>The weighth has increased or hasn't changed. &lt;=0</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -143,6 +137,12 @@
   </si>
   <si>
     <t>The program is working</t>
+  </si>
+  <si>
+    <t>The weight hasn't changed, &lt;=0</t>
+  </si>
+  <si>
+    <t>The weight has changed. &gt;0</t>
   </si>
 </sst>
 </file>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -990,7 +990,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -1009,7 +1009,7 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E13" s="8"/>
       <c r="F13" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7">
         <f>COUNT(B15:B24)</f>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7">
         <f>AVERAGE(D15:D24)</f>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="8">
         <f>ROUND(_xlfn.STDEV.S(D15:D24), 2)</f>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="13">
         <f>G15/SQRT(G13)</f>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G19" s="8">
         <f>G14/G16</f>
@@ -1283,16 +1283,16 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="I23" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -1320,10 +1320,10 @@
         <v>0.01</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -1342,10 +1342,10 @@
         <v>0.05</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -1362,10 +1362,10 @@
         <v>0.1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
